--- a/DB및 화면 설계.xlsx
+++ b/DB및 화면 설계.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>UPDATE INTO member VALUES(nickname='이름', email='이메일', introduce='소개');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,12 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -416,9 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +428,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="L175" sqref="L175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1490,140 +1494,140 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="17.25" thickBot="1">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="17.25" thickBot="1">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="J5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="2:17">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="L7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1631,38 +1635,38 @@
       <c r="M12" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="M16" s="9"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="18" spans="13:19">
       <c r="M18" t="s">
@@ -1670,82 +1674,82 @@
       </c>
     </row>
     <row r="19" spans="13:19">
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
     </row>
     <row r="20" spans="13:19">
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
     </row>
     <row r="21" spans="13:19">
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="24" spans="13:19">
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
     </row>
     <row r="25" spans="13:19">
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
     </row>
     <row r="35" spans="6:12">
       <c r="F35" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="6:12">
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="6:12">
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="40" spans="6:12">
       <c r="F40" t="s">
@@ -1778,12 +1782,12 @@
       </c>
     </row>
     <row r="91" spans="11:14">
-      <c r="K91" s="1" t="s">
+      <c r="K91" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
     </row>
     <row r="94" spans="11:14">
       <c r="K94" t="s">

--- a/DB및 화면 설계.xlsx
+++ b/DB및 화면 설계.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yong-kwangsoon/Desktop/YKS_project/tirilee_test_django/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D552E8D2-DA40-5245-B375-F1F7F51E3E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20415" windowHeight="10710"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="23940" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,7 +211,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -317,21 +323,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -379,6 +370,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -408,13 +412,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -423,10 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -438,12 +439,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,7 +476,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -504,7 +522,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="그림 10"/>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -542,7 +566,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="오른쪽 화살표 9"/>
+        <xdr:cNvPr id="10" name="오른쪽 화살표 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -596,7 +626,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="아래쪽 화살표 11"/>
+        <xdr:cNvPr id="12" name="아래쪽 화살표 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -650,7 +686,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 12"/>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -688,7 +730,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -726,7 +774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 14"/>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -764,7 +818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="오른쪽 화살표 15"/>
+        <xdr:cNvPr id="16" name="오른쪽 화살표 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -818,7 +878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -856,7 +922,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="그림 17"/>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -894,7 +966,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="오른쪽 화살표 18"/>
+        <xdr:cNvPr id="19" name="오른쪽 화살표 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -948,7 +1026,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="그림 19"/>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -986,7 +1070,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="그림 20"/>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1024,7 +1114,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="오른쪽 화살표 21"/>
+        <xdr:cNvPr id="22" name="오른쪽 화살표 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1078,7 +1174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="그림 22"/>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1116,7 +1218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="오른쪽 화살표 23"/>
+        <xdr:cNvPr id="24" name="오른쪽 화살표 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1170,7 +1278,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24"/>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1239,7 +1353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1271,9 +1385,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1305,6 +1437,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1480,21 +1630,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="17.25" thickBot="1">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:17" ht="18" thickBot="1">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1507,27 +1657,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="17.25" thickBot="1">
-      <c r="B4" s="14"/>
+    <row r="4" spans="2:17" ht="18" thickBot="1">
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1539,11 +1689,14 @@
       <c r="N4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -1562,7 +1715,7 @@
       <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -1578,6 +1731,9 @@
         <v>10</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1600,12 +1756,19 @@
       <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="O6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:17">
       <c r="E7" s="1" t="s">
@@ -1624,10 +1787,10 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1635,38 +1798,38 @@
       <c r="M12" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="2:17">
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="2:17">
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="2:17">
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17">
-      <c r="M16" s="7"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="18" spans="13:19">
       <c r="M18" t="s">
@@ -1674,82 +1837,82 @@
       </c>
     </row>
     <row r="19" spans="13:19">
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="13:19">
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
     </row>
     <row r="21" spans="13:19">
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
     </row>
     <row r="24" spans="13:19">
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
     </row>
     <row r="25" spans="13:19">
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
     </row>
     <row r="35" spans="6:12">
       <c r="F35" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="6:12">
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="6:12">
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
     <row r="40" spans="6:12">
       <c r="F40" t="s">
@@ -1782,12 +1945,12 @@
       </c>
     </row>
     <row r="91" spans="11:14">
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
     </row>
     <row r="94" spans="11:14">
       <c r="K94" t="s">
@@ -1849,12 +2012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,12 +2025,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
